--- a/attempt3/invigilator_assignments.xlsx
+++ b/attempt3/invigilator_assignments.xlsx
@@ -35,50 +35,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047eacd"/>
-        <bgColor rgb="0047eacd"/>
+        <fgColor rgb="0047abea"/>
+        <bgColor rgb="0047abea"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00d547ea"/>
-        <bgColor rgb="00d547ea"/>
+        <fgColor rgb="0084ea47"/>
+        <bgColor rgb="0084ea47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00474fea"/>
-        <bgColor rgb="00474fea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004788ea"/>
-        <bgColor rgb="004788ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea4780"/>
-        <bgColor rgb="00ea4780"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00b2ea47"/>
-        <bgColor rgb="00b2ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00c9ea47"/>
-        <bgColor rgb="00c9ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea7547"/>
-        <bgColor rgb="00ea7547"/>
+        <fgColor rgb="009b47ea"/>
+        <bgColor rgb="009b47ea"/>
       </patternFill>
     </fill>
     <fill>
@@ -95,8 +65,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047d9ea"/>
-        <bgColor rgb="0047d9ea"/>
+        <fgColor rgb="0062ea47"/>
+        <bgColor rgb="0062ea47"/>
       </patternFill>
     </fill>
     <fill>
@@ -107,44 +77,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ea6947"/>
-        <bgColor rgb="00ea6947"/>
+        <fgColor rgb="004794ea"/>
+        <bgColor rgb="004794ea"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ea8c47"/>
-        <bgColor rgb="00ea8c47"/>
+        <fgColor rgb="00eaa347"/>
+        <bgColor rgb="00eaa347"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0090ea47"/>
-        <bgColor rgb="0090ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004b47ea"/>
-        <bgColor rgb="004b47ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ea94"/>
-        <bgColor rgb="0047ea94"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea4798"/>
-        <bgColor rgb="00ea4798"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005647ea"/>
-        <bgColor rgb="005647ea"/>
+        <fgColor rgb="00b2ea47"/>
+        <bgColor rgb="00b2ea47"/>
       </patternFill>
     </fill>
     <fill>
@@ -161,8 +107,272 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0062ea47"/>
-        <bgColor rgb="0062ea47"/>
+        <fgColor rgb="00eae847"/>
+        <bgColor rgb="00eae847"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea6947"/>
+        <bgColor rgb="00ea6947"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047eab6"/>
+        <bgColor rgb="0047eab6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047eacd"/>
+        <bgColor rgb="0047eacd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ead9"/>
+        <bgColor rgb="0047ead9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004bea47"/>
+        <bgColor rgb="004bea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0056ea47"/>
+        <bgColor rgb="0056ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079ea47"/>
+        <bgColor rgb="0079ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00474fea"/>
+        <bgColor rgb="00474fea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004766ea"/>
+        <bgColor rgb="004766ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047b6ea"/>
+        <bgColor rgb="0047b6ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea5247"/>
+        <bgColor rgb="00ea5247"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea475e"/>
+        <bgColor rgb="00ea475e"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004788ea"/>
+        <bgColor rgb="004788ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea4775"/>
+        <bgColor rgb="00ea4775"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008447ea"/>
+        <bgColor rgb="008447ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c9ea47"/>
+        <bgColor rgb="00c9ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea4769"/>
+        <bgColor rgb="00ea4769"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047cdea"/>
+        <bgColor rgb="0047cdea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea4752"/>
+        <bgColor rgb="00ea4752"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea47e8"/>
+        <bgColor rgb="00ea47e8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00477dea"/>
+        <bgColor rgb="00477dea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea47c6"/>
+        <bgColor rgb="00ea47c6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00beea47"/>
+        <bgColor rgb="00beea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004771ea"/>
+        <bgColor rgb="004771ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00a7ea47"/>
+        <bgColor rgb="00a7ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047c2ea"/>
+        <bgColor rgb="0047c2ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00a747ea"/>
+        <bgColor rgb="00a747ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea5e47"/>
+        <bgColor rgb="00ea5e47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eac647"/>
+        <bgColor rgb="00eac647"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e047ea"/>
+        <bgColor rgb="00e047ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d547ea"/>
+        <bgColor rgb="00d547ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ea7d"/>
+        <bgColor rgb="0047ea7d"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ea71"/>
+        <bgColor rgb="0047ea71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea47af"/>
+        <bgColor rgb="00ea47af"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006247ea"/>
+        <bgColor rgb="006247ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005647ea"/>
+        <bgColor rgb="005647ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004b47ea"/>
+        <bgColor rgb="004b47ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006dea47"/>
+        <bgColor rgb="006dea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea4798"/>
+        <bgColor rgb="00ea4798"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea7547"/>
+        <bgColor rgb="00ea7547"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090ea47"/>
+        <bgColor rgb="0090ea47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047eac2"/>
+        <bgColor rgb="0047eac2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ead147"/>
+        <bgColor rgb="00ead147"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e1ea47"/>
+        <bgColor rgb="00e1ea47"/>
       </patternFill>
     </fill>
     <fill>
@@ -173,20 +383,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047ea71"/>
-        <bgColor rgb="0047ea71"/>
+        <fgColor rgb="00d5ea47"/>
+        <bgColor rgb="00d5ea47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0079ea47"/>
-        <bgColor rgb="0079ea47"/>
+        <fgColor rgb="00ea8147"/>
+        <bgColor rgb="00ea8147"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0084ea47"/>
-        <bgColor rgb="0084ea47"/>
+        <fgColor rgb="0047d9ea"/>
+        <bgColor rgb="0047d9ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ea47ba"/>
+        <bgColor rgb="00ea47ba"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047ea4f"/>
+        <bgColor rgb="0047ea4f"/>
       </patternFill>
     </fill>
     <fill>
@@ -197,164 +419,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047eab6"/>
-        <bgColor rgb="0047eab6"/>
+        <fgColor rgb="00ea47a3"/>
+        <bgColor rgb="00ea47a3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00a747ea"/>
-        <bgColor rgb="00a747ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047c2ea"/>
-        <bgColor rgb="0047c2ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00beea47"/>
-        <bgColor rgb="00beea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0056ea47"/>
-        <bgColor rgb="0056ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea47ba"/>
-        <bgColor rgb="00ea47ba"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047abea"/>
-        <bgColor rgb="0047abea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea5247"/>
-        <bgColor rgb="00ea5247"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e047ea"/>
-        <bgColor rgb="00e047ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004bea47"/>
-        <bgColor rgb="004bea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eae847"/>
-        <bgColor rgb="00eae847"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea4775"/>
-        <bgColor rgb="00ea4775"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea47af"/>
-        <bgColor rgb="00ea47af"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e1ea47"/>
-        <bgColor rgb="00e1ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ea7d"/>
-        <bgColor rgb="0047ea7d"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea475e"/>
-        <bgColor rgb="00ea475e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004771ea"/>
-        <bgColor rgb="004771ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ead147"/>
-        <bgColor rgb="00ead147"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047ead9"/>
-        <bgColor rgb="0047ead9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00a7ea47"/>
-        <bgColor rgb="00a7ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008447ea"/>
-        <bgColor rgb="008447ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eaa347"/>
-        <bgColor rgb="00eaa347"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006dea47"/>
-        <bgColor rgb="006dea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea8147"/>
-        <bgColor rgb="00ea8147"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004794ea"/>
-        <bgColor rgb="004794ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004766ea"/>
-        <bgColor rgb="004766ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea4752"/>
-        <bgColor rgb="00ea4752"/>
+        <fgColor rgb="00ea4780"/>
+        <bgColor rgb="00ea4780"/>
       </patternFill>
     </fill>
     <fill>
@@ -365,80 +437,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047eac2"/>
-        <bgColor rgb="0047eac2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00ea47dd"/>
         <bgColor rgb="00ea47dd"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00d5ea47"/>
-        <bgColor rgb="00d5ea47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea47a3"/>
-        <bgColor rgb="00ea47a3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea4769"/>
-        <bgColor rgb="00ea4769"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006247ea"/>
-        <bgColor rgb="006247ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eac647"/>
-        <bgColor rgb="00eac647"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047cdea"/>
-        <bgColor rgb="0047cdea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00b247ea"/>
-        <bgColor rgb="00b247ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009b47ea"/>
-        <bgColor rgb="009b47ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea5e47"/>
-        <bgColor rgb="00ea5e47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea47c6"/>
-        <bgColor rgb="00ea47c6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ea47e8"/>
-        <bgColor rgb="00ea47e8"/>
       </patternFill>
     </fill>
     <fill>
@@ -455,8 +455,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047ea4f"/>
-        <bgColor rgb="0047ea4f"/>
+        <fgColor rgb="009bea47"/>
+        <bgColor rgb="009bea47"/>
       </patternFill>
     </fill>
     <fill>
@@ -467,20 +467,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00477dea"/>
-        <bgColor rgb="00477dea"/>
+        <fgColor rgb="0047ea94"/>
+        <bgColor rgb="0047ea94"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047b6ea"/>
-        <bgColor rgb="0047b6ea"/>
+        <fgColor rgb="00ea8c47"/>
+        <bgColor rgb="00ea8c47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009bea47"/>
-        <bgColor rgb="009bea47"/>
+        <fgColor rgb="00b247ea"/>
+        <bgColor rgb="00b247ea"/>
       </patternFill>
     </fill>
   </fills>
@@ -1054,9 +1054,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Exam8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1064,9 +1064,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Exam18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1084,9 +1084,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Exam39</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1099,9 +1099,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Exam54</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1114,9 +1114,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1176,14 +1176,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>Exam34</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1191,9 +1191,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>Exam51</t>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1216,9 +1216,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>Exam70</t>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -1231,9 +1231,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S3" s="6" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -1258,9 +1258,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>Exam17</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1268,14 +1268,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>Exam29</t>
-        </is>
-      </c>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1308,9 +1308,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O4" s="6" t="inlineStr">
+        <is>
+          <t>Exam61</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1328,9 +1328,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S4" s="7" t="inlineStr">
+        <is>
+          <t>Exam73</t>
         </is>
       </c>
     </row>
@@ -1355,9 +1355,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>Exam17</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1370,9 +1370,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1405,9 +1405,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O5" s="8" t="inlineStr">
+        <is>
+          <t>Exam65</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1425,9 +1425,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S5" s="10" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1497,14 +1497,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O6" s="11" t="inlineStr">
-        <is>
-          <t>Exam64</t>
+      <c r="N6" s="9" t="inlineStr">
+        <is>
+          <t>Exam58</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1522,9 +1522,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S6" s="12" t="inlineStr">
-        <is>
-          <t>Exam73</t>
+      <c r="S6" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -1539,9 +1539,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Exam6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1579,14 +1579,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K7" s="13" t="inlineStr">
-        <is>
-          <t>Exam43</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="12" t="inlineStr">
+        <is>
+          <t>Exam53</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1594,14 +1594,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="N7" s="13" t="inlineStr">
+        <is>
+          <t>Exam59</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1676,9 +1676,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K8" s="14" t="inlineStr">
+        <is>
+          <t>Exam43</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1696,9 +1696,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O8" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O8" s="15" t="inlineStr">
+        <is>
+          <t>Exam63</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1716,9 +1716,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S8" s="6" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1728,9 +1728,9 @@
           <t>Andrew White</t>
         </is>
       </c>
-      <c r="B9" s="14" t="inlineStr">
-        <is>
-          <t>Exam1</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1758,14 +1758,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H9" s="15" t="inlineStr">
-        <is>
-          <t>Exam32</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1778,9 +1778,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L9" s="16" t="inlineStr">
-        <is>
-          <t>Exam52</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1793,9 +1793,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O9" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1813,9 +1813,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S9" s="10" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1840,14 +1840,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E10" s="17" t="inlineStr">
-        <is>
-          <t>Exam20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="17" t="inlineStr">
+        <is>
+          <t>Exam21</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1855,9 +1855,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H10" s="18" t="inlineStr">
+        <is>
+          <t>Exam33</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1870,9 +1870,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K10" s="19" t="inlineStr">
+        <is>
+          <t>Exam47</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1890,9 +1890,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O10" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1922,9 +1922,9 @@
           <t>Annabelle Johnson</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B11" s="20" t="inlineStr">
+        <is>
+          <t>Exam4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1932,9 +1932,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
-        <is>
-          <t>Exam13</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1967,9 +1967,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K11" s="4" t="inlineStr">
-        <is>
-          <t>Exam51</t>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1987,9 +1987,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O11" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2024,9 +2024,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C12" s="22" t="inlineStr">
+        <is>
+          <t>Exam9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2039,9 +2039,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F12" s="23" t="inlineStr">
+        <is>
+          <t>Exam22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2054,9 +2054,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I12" s="19" t="inlineStr">
-        <is>
-          <t>Exam38</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2084,9 +2084,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O12" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2104,9 +2104,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S12" s="24" t="inlineStr">
+        <is>
+          <t>Exam71</t>
         </is>
       </c>
     </row>
@@ -2121,9 +2121,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C13" s="20" t="inlineStr">
-        <is>
-          <t>Exam6</t>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2141,9 +2141,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G13" s="25" t="inlineStr">
+        <is>
+          <t>Exam28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2151,9 +2151,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I13" s="16" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2161,14 +2161,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L13" s="21" t="inlineStr">
-        <is>
-          <t>Exam53</t>
+      <c r="K13" s="26" t="inlineStr">
+        <is>
+          <t>Exam51</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2181,9 +2181,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O13" s="22" t="inlineStr">
-        <is>
-          <t>Exam61</t>
+      <c r="O13" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2201,9 +2201,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S13" s="6" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2213,9 +2213,9 @@
           <t>Benjamin Walker</t>
         </is>
       </c>
-      <c r="B14" s="23" t="inlineStr">
-        <is>
-          <t>Exam5</t>
+      <c r="B14" s="20" t="inlineStr">
+        <is>
+          <t>Exam4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2243,7 +2243,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H14" s="9" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>Exam34</t>
         </is>
@@ -2268,9 +2268,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M14" s="27" t="inlineStr">
+        <is>
+          <t>Exam56</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2278,14 +2278,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O14" s="24" t="inlineStr">
-        <is>
-          <t>Exam62</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P14" s="28" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2298,9 +2298,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -2310,9 +2310,9 @@
           <t>Catherine Young</t>
         </is>
       </c>
-      <c r="B15" s="25" t="inlineStr">
-        <is>
-          <t>Exam4</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2325,9 +2325,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E15" s="29" t="inlineStr">
+        <is>
+          <t>Exam17</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2340,9 +2340,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2350,14 +2350,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J15" s="30" t="inlineStr">
+        <is>
+          <t>Exam42</t>
+        </is>
+      </c>
+      <c r="K15" s="31" t="inlineStr">
+        <is>
+          <t>Exam50</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2375,14 +2375,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" s="28" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2395,9 +2395,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -2417,14 +2417,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="26" t="inlineStr">
-        <is>
-          <t>Exam18</t>
+      <c r="D16" s="32" t="inlineStr">
+        <is>
+          <t>Exam14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2432,9 +2432,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G16" s="27" t="inlineStr">
-        <is>
-          <t>Exam30</t>
+      <c r="G16" s="33" t="inlineStr">
+        <is>
+          <t>Exam26</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2442,9 +2442,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I16" s="34" t="inlineStr">
+        <is>
+          <t>Exam37</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2472,9 +2472,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O16" s="28" t="inlineStr">
-        <is>
-          <t>Exam63</t>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2492,9 +2492,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S16" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -2524,9 +2524,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F17" s="29" t="inlineStr">
-        <is>
-          <t>Exam25</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2539,9 +2539,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I17" s="30" t="inlineStr">
-        <is>
-          <t>Exam36</t>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2549,9 +2549,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K17" s="4" t="inlineStr">
-        <is>
-          <t>Exam51</t>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2569,14 +2569,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O17" s="28" t="inlineStr">
-        <is>
-          <t>Exam63</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P17" s="35" t="inlineStr">
+        <is>
+          <t>Exam69</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2601,7 +2601,7 @@
           <t>Christopher Scott</t>
         </is>
       </c>
-      <c r="B18" s="31" t="inlineStr">
+      <c r="B18" s="36" t="inlineStr">
         <is>
           <t>Exam3</t>
         </is>
@@ -2621,9 +2621,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F18" s="29" t="inlineStr">
-        <is>
-          <t>Exam25</t>
+      <c r="F18" s="37" t="inlineStr">
+        <is>
+          <t>Exam23</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2636,9 +2636,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I18" s="1" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2646,9 +2646,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K18" s="32" t="inlineStr">
-        <is>
-          <t>Exam47</t>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2656,9 +2656,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M18" s="33" t="inlineStr">
-        <is>
-          <t>Exam55</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2666,14 +2666,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O18" s="22" t="inlineStr">
-        <is>
-          <t>Exam61</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P18" s="28" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2686,9 +2686,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S18" s="6" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2698,14 +2698,14 @@
           <t>Clara Green</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C19" s="34" t="inlineStr">
-        <is>
-          <t>Exam8</t>
+      <c r="B19" s="20" t="inlineStr">
+        <is>
+          <t>Exam4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2733,9 +2733,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I19" s="16" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2748,9 +2748,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L19" s="12" t="inlineStr">
+        <is>
+          <t>Exam53</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2758,19 +2758,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O19" s="24" t="inlineStr">
-        <is>
-          <t>Exam62</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N19" s="38" t="inlineStr">
+        <is>
+          <t>Exam60</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P19" s="28" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2783,9 +2783,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S19" s="35" t="inlineStr">
-        <is>
-          <t>Exam71</t>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2795,9 +2795,9 @@
           <t>Daniel Adams</t>
         </is>
       </c>
-      <c r="B20" s="31" t="inlineStr">
-        <is>
-          <t>Exam3</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2835,9 +2835,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J20" s="36" t="inlineStr">
-        <is>
-          <t>Exam40</t>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2845,9 +2845,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L20" s="21" t="inlineStr">
-        <is>
-          <t>Exam53</t>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2860,14 +2860,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O20" s="11" t="inlineStr">
-        <is>
-          <t>Exam64</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P20" s="28" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2880,9 +2880,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S20" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -2922,14 +2922,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H21" s="37" t="inlineStr">
-        <is>
-          <t>Exam33</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" s="39" t="inlineStr">
+        <is>
+          <t>Exam36</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2937,9 +2937,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K21" s="26" t="inlineStr">
+        <is>
+          <t>Exam51</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2952,9 +2952,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N21" s="38" t="inlineStr">
-        <is>
-          <t>Exam59</t>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2977,9 +2977,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S21" s="35" t="inlineStr">
-        <is>
-          <t>Exam71</t>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3009,9 +3009,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F22" s="40" t="inlineStr">
+        <is>
+          <t>Exam25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3034,9 +3034,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K22" s="26" t="inlineStr">
+        <is>
+          <t>Exam51</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3044,14 +3044,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M22" s="39" t="inlineStr">
-        <is>
-          <t>Exam56</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N22" s="41" t="inlineStr">
+        <is>
+          <t>Exam57</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3074,9 +3074,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S22" s="6" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3101,9 +3101,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E23" s="42" t="inlineStr">
+        <is>
+          <t>Exam16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3126,14 +3126,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J23" s="40" t="inlineStr">
-        <is>
-          <t>Exam41</t>
-        </is>
-      </c>
-      <c r="K23" s="41" t="inlineStr">
-        <is>
-          <t>Exam45</t>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3151,9 +3151,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O23" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3171,9 +3171,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S23" s="12" t="inlineStr">
-        <is>
-          <t>Exam73</t>
+      <c r="S23" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -3228,9 +3228,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K24" s="42" t="inlineStr">
-        <is>
-          <t>Exam48</t>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3248,9 +3248,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O24" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3295,9 +3295,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E25" s="29" t="inlineStr">
+        <is>
+          <t>Exam17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3305,9 +3305,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G25" s="43" t="inlineStr">
-        <is>
-          <t>Exam28</t>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3320,9 +3320,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J25" s="43" t="inlineStr">
+        <is>
+          <t>Exam40</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3335,9 +3335,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M25" s="39" t="inlineStr">
-        <is>
-          <t>Exam56</t>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3377,9 +3377,9 @@
           <t>Emily Perry</t>
         </is>
       </c>
-      <c r="B26" s="25" t="inlineStr">
-        <is>
-          <t>Exam4</t>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3392,14 +3392,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F26" s="44" t="inlineStr">
-        <is>
-          <t>Exam23</t>
+      <c r="E26" s="29" t="inlineStr">
+        <is>
+          <t>Exam17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3407,9 +3407,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3462,9 +3462,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S26" s="6" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3474,9 +3474,9 @@
           <t>Emma Cook</t>
         </is>
       </c>
-      <c r="B27" s="45" t="inlineStr">
-        <is>
-          <t>Exam2</t>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3494,9 +3494,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F27" s="46" t="inlineStr">
-        <is>
-          <t>Exam21</t>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3504,9 +3504,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H27" s="9" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3534,9 +3534,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N27" s="47" t="inlineStr">
-        <is>
-          <t>Exam60</t>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3544,9 +3544,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P27" s="48" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -3631,14 +3631,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N28" s="38" t="inlineStr">
-        <is>
-          <t>Exam59</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O28" s="6" t="inlineStr">
+        <is>
+          <t>Exam61</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3668,14 +3668,14 @@
           <t>Florence Reed</t>
         </is>
       </c>
-      <c r="B29" s="45" t="inlineStr">
-        <is>
-          <t>Exam2</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C29" s="11" t="inlineStr">
+        <is>
+          <t>Exam6</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3698,9 +3698,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3718,9 +3718,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L29" s="44" t="inlineStr">
+        <is>
+          <t>Exam54</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3728,9 +3728,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N29" s="38" t="inlineStr">
+        <is>
+          <t>Exam60</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3753,9 +3753,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S29" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -3810,9 +3810,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K30" s="45" t="inlineStr">
+        <is>
+          <t>Exam48</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3825,19 +3825,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N30" s="49" t="inlineStr">
-        <is>
-          <t>Exam58</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P30" s="48" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O30" s="46" t="inlineStr">
+        <is>
+          <t>Exam62</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -3850,9 +3850,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S30" s="50" t="inlineStr">
-        <is>
-          <t>Exam75</t>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3872,9 +3872,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D31" s="51" t="inlineStr">
-        <is>
-          <t>Exam15</t>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3907,9 +3907,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K31" s="42" t="inlineStr">
-        <is>
-          <t>Exam48</t>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3927,9 +3927,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O31" s="52" t="inlineStr">
-        <is>
-          <t>Exam65</t>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3947,9 +3947,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S31" s="50" t="inlineStr">
-        <is>
-          <t>Exam75</t>
+      <c r="S31" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -3964,9 +3964,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C32" s="53" t="inlineStr">
-        <is>
-          <t>Exam9</t>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3984,14 +3984,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G32" s="43" t="inlineStr">
-        <is>
-          <t>Exam28</t>
-        </is>
-      </c>
-      <c r="H32" s="9" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4019,7 +4019,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N32" s="49" t="inlineStr">
+      <c r="N32" s="9" t="inlineStr">
         <is>
           <t>Exam58</t>
         </is>
@@ -4029,9 +4029,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P32" s="48" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -4076,9 +4076,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F33" s="44" t="inlineStr">
-        <is>
-          <t>Exam23</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -4096,9 +4096,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J33" s="47" t="inlineStr">
+        <is>
+          <t>Exam41</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4111,9 +4111,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M33" s="27" t="inlineStr">
+        <is>
+          <t>Exam56</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4126,9 +4126,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P33" s="5" t="inlineStr">
-        <is>
-          <t>Exam70</t>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -4173,14 +4173,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G34" s="8" t="inlineStr">
-        <is>
-          <t>Exam29</t>
+      <c r="F34" s="48" t="inlineStr">
+        <is>
+          <t>Exam24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4193,9 +4193,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J34" s="40" t="inlineStr">
-        <is>
-          <t>Exam41</t>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4218,14 +4218,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P34" s="48" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="O34" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -4260,9 +4260,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D35" s="54" t="inlineStr">
-        <is>
-          <t>Exam14</t>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4285,9 +4285,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I35" s="49" t="inlineStr">
+        <is>
+          <t>Exam38</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4300,9 +4300,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>Exam54</t>
+      <c r="L35" s="50" t="inlineStr">
+        <is>
+          <t>Exam52</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4310,9 +4310,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N35" s="49" t="inlineStr">
-        <is>
-          <t>Exam58</t>
+      <c r="N35" s="41" t="inlineStr">
+        <is>
+          <t>Exam57</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4335,9 +4335,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S35" s="7" t="inlineStr">
+        <is>
+          <t>Exam73</t>
         </is>
       </c>
     </row>
@@ -4352,9 +4352,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C36" s="55" t="inlineStr">
-        <is>
-          <t>Exam7</t>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4377,9 +4377,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H36" s="15" t="inlineStr">
-        <is>
-          <t>Exam32</t>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4392,9 +4392,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K36" s="56" t="inlineStr">
-        <is>
-          <t>Exam49</t>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4432,9 +4432,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S36" s="10" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S36" s="51" t="inlineStr">
+        <is>
+          <t>Exam75</t>
         </is>
       </c>
     </row>
@@ -4469,9 +4469,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G37" s="25" t="inlineStr">
+        <is>
+          <t>Exam28</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4484,9 +4484,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J37" s="47" t="inlineStr">
+        <is>
+          <t>Exam41</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4494,9 +4494,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L37" s="16" t="inlineStr">
-        <is>
-          <t>Exam52</t>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4529,7 +4529,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S37" s="6" t="inlineStr">
+      <c r="S37" s="10" t="inlineStr">
         <is>
           <t>Exam74</t>
         </is>
@@ -4551,9 +4551,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D38" s="57" t="inlineStr">
-        <is>
-          <t>Exam12</t>
+      <c r="D38" s="52" t="inlineStr">
+        <is>
+          <t>Exam13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4566,14 +4566,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H38" s="58" t="inlineStr">
-        <is>
-          <t>Exam31</t>
+      <c r="G38" s="53" t="inlineStr">
+        <is>
+          <t>Exam29</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4586,7 +4586,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K38" s="4" t="inlineStr">
+      <c r="K38" s="26" t="inlineStr">
         <is>
           <t>Exam51</t>
         </is>
@@ -4596,9 +4596,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M38" s="33" t="inlineStr">
-        <is>
-          <t>Exam55</t>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4606,9 +4606,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O38" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4626,9 +4626,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S38" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -4663,14 +4663,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G39" s="59" t="inlineStr">
-        <is>
-          <t>Exam27</t>
-        </is>
-      </c>
-      <c r="H39" s="9" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="54" t="inlineStr">
+        <is>
+          <t>Exam32</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4678,14 +4678,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J39" s="60" t="inlineStr">
-        <is>
-          <t>Exam42</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="55" t="inlineStr">
+        <is>
+          <t>Exam49</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -4723,9 +4723,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S39" s="10" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4735,9 +4735,9 @@
           <t>Jane Brooks</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B40" s="56" t="inlineStr">
+        <is>
+          <t>Exam2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4750,9 +4750,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E40" s="7" t="inlineStr">
-        <is>
-          <t>Exam17</t>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4852,9 +4852,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F41" s="61" t="inlineStr">
-        <is>
-          <t>Exam24</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -4862,9 +4862,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4897,7 +4897,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O41" s="3" t="inlineStr">
+      <c r="O41" s="21" t="inlineStr">
         <is>
           <t>Exam66</t>
         </is>
@@ -4917,9 +4917,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S41" s="10" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4954,14 +4954,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G42" s="27" t="inlineStr">
-        <is>
-          <t>Exam30</t>
-        </is>
-      </c>
-      <c r="H42" s="9" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4974,9 +4974,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K42" s="57" t="inlineStr">
+        <is>
+          <t>Exam45</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4999,9 +4999,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P42" s="48" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -5014,9 +5014,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S42" s="10" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S42" s="51" t="inlineStr">
+        <is>
+          <t>Exam75</t>
         </is>
       </c>
     </row>
@@ -5046,9 +5046,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F43" s="48" t="inlineStr">
+        <is>
+          <t>Exam24</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -5061,9 +5061,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5076,9 +5076,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L43" s="44" t="inlineStr">
+        <is>
+          <t>Exam54</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -5096,9 +5096,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P43" s="35" t="inlineStr">
+        <is>
+          <t>Exam69</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -5111,9 +5111,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S43" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -5128,19 +5128,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D44" s="54" t="inlineStr">
-        <is>
-          <t>Exam14</t>
-        </is>
-      </c>
-      <c r="E44" s="62" t="inlineStr">
-        <is>
-          <t>Exam16</t>
+      <c r="C44" s="11" t="inlineStr">
+        <is>
+          <t>Exam6</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E44" s="29" t="inlineStr">
+        <is>
+          <t>Exam17</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5153,9 +5153,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H44" s="9" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -5168,9 +5168,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K44" s="63" t="inlineStr">
-        <is>
-          <t>Exam50</t>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="S44" s="10" t="inlineStr">
         <is>
-          <t>Exam72</t>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
           <t>Leonard Gray</t>
         </is>
       </c>
-      <c r="B45" s="23" t="inlineStr">
+      <c r="B45" s="58" t="inlineStr">
         <is>
           <t>Exam5</t>
         </is>
@@ -5230,9 +5230,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D45" s="64" t="inlineStr">
-        <is>
-          <t>Exam11</t>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5250,9 +5250,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H45" s="9" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -5260,9 +5260,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J45" s="30" t="inlineStr">
+        <is>
+          <t>Exam42</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5280,9 +5280,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N45" s="13" t="inlineStr">
+        <is>
+          <t>Exam59</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5305,9 +5305,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S45" s="10" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5342,19 +5342,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I46" s="65" t="inlineStr">
-        <is>
-          <t>Exam39</t>
+      <c r="G46" s="25" t="inlineStr">
+        <is>
+          <t>Exam28</t>
+        </is>
+      </c>
+      <c r="H46" s="59" t="inlineStr">
+        <is>
+          <t>Exam31</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5387,9 +5387,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P46" s="28" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -5402,9 +5402,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S46" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -5414,9 +5414,9 @@
           <t>Louisa Powell</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B47" s="36" t="inlineStr">
+        <is>
+          <t>Exam3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5424,9 +5424,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D47" s="51" t="inlineStr">
-        <is>
-          <t>Exam15</t>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -5449,9 +5449,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I47" s="16" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5459,9 +5459,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K47" s="31" t="inlineStr">
+        <is>
+          <t>Exam50</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5474,9 +5474,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N47" s="66" t="inlineStr">
-        <is>
-          <t>Exam57</t>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -5484,9 +5484,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P47" s="67" t="inlineStr">
-        <is>
-          <t>Exam69</t>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -5499,9 +5499,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S47" s="50" t="inlineStr">
-        <is>
-          <t>Exam75</t>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5521,9 +5521,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D48" s="60" t="inlineStr">
+        <is>
+          <t>Exam15</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5536,9 +5536,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G48" s="25" t="inlineStr">
+        <is>
+          <t>Exam28</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5566,9 +5566,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M48" s="39" t="inlineStr">
-        <is>
-          <t>Exam56</t>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -5581,9 +5581,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P48" s="48" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -5596,7 +5596,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S48" s="6" t="inlineStr">
+      <c r="S48" s="10" t="inlineStr">
         <is>
           <t>Exam74</t>
         </is>
@@ -5608,9 +5608,9 @@
           <t>Lydia Patterson</t>
         </is>
       </c>
-      <c r="B49" s="25" t="inlineStr">
-        <is>
-          <t>Exam4</t>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5628,9 +5628,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F49" s="40" t="inlineStr">
+        <is>
+          <t>Exam25</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -5638,9 +5638,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -5673,9 +5673,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O49" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O49" s="61" t="inlineStr">
+        <is>
+          <t>Exam64</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -5693,9 +5693,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S49" s="10" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5715,9 +5715,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D50" s="32" t="inlineStr">
+        <is>
+          <t>Exam14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5735,9 +5735,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H50" s="18" t="inlineStr">
+        <is>
+          <t>Exam33</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -5770,9 +5770,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O50" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O50" s="46" t="inlineStr">
+        <is>
+          <t>Exam62</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5837,9 +5837,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I51" s="16" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5862,14 +5862,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O51" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="N51" s="9" t="inlineStr">
+        <is>
+          <t>Exam58</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5887,9 +5887,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S51" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -5919,9 +5919,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F52" s="61" t="inlineStr">
-        <is>
-          <t>Exam24</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -5929,14 +5929,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H52" s="9" t="inlineStr">
-        <is>
-          <t>Exam34</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>Exam39</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5944,9 +5944,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K52" s="55" t="inlineStr">
+        <is>
+          <t>Exam49</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -5954,9 +5954,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M52" s="62" t="inlineStr">
+        <is>
+          <t>Exam55</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -5964,9 +5964,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O52" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5984,9 +5984,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S52" s="6" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S52" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -6021,14 +6021,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G53" s="68" t="inlineStr">
-        <is>
-          <t>Exam26</t>
-        </is>
-      </c>
-      <c r="H53" s="58" t="inlineStr">
-        <is>
-          <t>Exam31</t>
+      <c r="G53" s="53" t="inlineStr">
+        <is>
+          <t>Exam29</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -6061,9 +6061,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O53" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6081,9 +6081,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S53" s="51" t="inlineStr">
+        <is>
+          <t>Exam75</t>
         </is>
       </c>
     </row>
@@ -6093,9 +6093,9 @@
           <t>Michael Hughes</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B54" s="20" t="inlineStr">
+        <is>
+          <t>Exam4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6108,9 +6108,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E54" s="7" t="inlineStr">
-        <is>
-          <t>Exam17</t>
+      <c r="E54" s="63" t="inlineStr">
+        <is>
+          <t>Exam19</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6118,9 +6118,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G54" s="64" t="inlineStr">
+        <is>
+          <t>Exam30</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -6128,9 +6128,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I54" s="1" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6138,9 +6138,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K54" s="26" t="inlineStr">
+        <is>
+          <t>Exam51</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -6163,9 +6163,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P54" s="69" t="inlineStr">
-        <is>
-          <t>Exam68</t>
+      <c r="P54" s="28" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -6178,9 +6178,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S54" s="7" t="inlineStr">
+        <is>
+          <t>Exam73</t>
         </is>
       </c>
     </row>
@@ -6225,9 +6225,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I55" s="16" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6240,9 +6240,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L55" s="50" t="inlineStr">
+        <is>
+          <t>Exam52</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -6250,9 +6250,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N55" s="66" t="inlineStr">
-        <is>
-          <t>Exam57</t>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6260,9 +6260,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P55" s="48" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -6292,19 +6292,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C56" s="70" t="inlineStr">
-        <is>
-          <t>Exam10</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E56" s="71" t="inlineStr">
-        <is>
-          <t>Exam19</t>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D56" s="60" t="inlineStr">
+        <is>
+          <t>Exam15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6312,14 +6312,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H56" s="37" t="inlineStr">
-        <is>
-          <t>Exam33</t>
+      <c r="G56" s="65" t="inlineStr">
+        <is>
+          <t>Exam27</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -6414,9 +6414,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H57" s="9" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -6444,9 +6444,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N57" s="47" t="inlineStr">
-        <is>
-          <t>Exam60</t>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6454,9 +6454,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P57" s="66" t="inlineStr">
+        <is>
+          <t>Exam70</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -6491,9 +6491,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D58" s="18" t="inlineStr">
-        <is>
-          <t>Exam13</t>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6511,9 +6511,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H58" s="9" t="inlineStr">
-        <is>
-          <t>Exam34</t>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -6526,9 +6526,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K58" s="4" t="inlineStr">
-        <is>
-          <t>Exam51</t>
+      <c r="K58" s="45" t="inlineStr">
+        <is>
+          <t>Exam48</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -6566,9 +6566,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S58" s="10" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S58" s="24" t="inlineStr">
+        <is>
+          <t>Exam71</t>
         </is>
       </c>
     </row>
@@ -6583,9 +6583,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C59" s="67" t="inlineStr">
+        <is>
+          <t>Exam7</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6593,9 +6593,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E59" s="42" t="inlineStr">
+        <is>
+          <t>Exam16</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6608,7 +6608,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H59" s="9" t="inlineStr">
+      <c r="H59" s="4" t="inlineStr">
         <is>
           <t>Exam34</t>
         </is>
@@ -6675,9 +6675,9 @@
           <t>Peter Butler</t>
         </is>
       </c>
-      <c r="B60" s="25" t="inlineStr">
-        <is>
-          <t>Exam4</t>
+      <c r="B60" s="58" t="inlineStr">
+        <is>
+          <t>Exam5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6695,9 +6695,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F60" s="40" t="inlineStr">
+        <is>
+          <t>Exam25</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -6740,9 +6740,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O60" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6787,9 +6787,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E61" s="62" t="inlineStr">
-        <is>
-          <t>Exam16</t>
+      <c r="E61" s="29" t="inlineStr">
+        <is>
+          <t>Exam17</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6817,9 +6817,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K61" s="72" t="inlineStr">
-        <is>
-          <t>Exam44</t>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -6894,9 +6894,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G62" s="43" t="inlineStr">
-        <is>
-          <t>Exam28</t>
+      <c r="G62" s="33" t="inlineStr">
+        <is>
+          <t>Exam26</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -6909,9 +6909,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J62" s="60" t="inlineStr">
-        <is>
-          <t>Exam42</t>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6934,9 +6934,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O62" s="15" t="inlineStr">
+        <is>
+          <t>Exam63</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -6954,9 +6954,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S62" s="6" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6976,9 +6976,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D63" s="68" t="inlineStr">
+        <is>
+          <t>Exam12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6991,9 +6991,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="G63" s="64" t="inlineStr">
+        <is>
+          <t>Exam30</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7001,9 +7001,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I63" s="73" t="inlineStr">
-        <is>
-          <t>Exam37</t>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7011,9 +7011,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K63" s="63" t="inlineStr">
-        <is>
-          <t>Exam50</t>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -7036,9 +7036,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P63" s="69" t="inlineStr">
+        <is>
+          <t>Exam68</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -7051,9 +7051,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S63" s="12" t="inlineStr">
-        <is>
-          <t>Exam73</t>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7068,9 +7068,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C64" s="20" t="inlineStr">
-        <is>
-          <t>Exam6</t>
+      <c r="C64" s="70" t="inlineStr">
+        <is>
+          <t>Exam10</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7083,9 +7083,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F64" s="74" t="inlineStr">
-        <is>
-          <t>Exam22</t>
+      <c r="F64" s="37" t="inlineStr">
+        <is>
+          <t>Exam23</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -7093,9 +7093,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H64" s="4" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -7103,9 +7103,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J64" s="43" t="inlineStr">
+        <is>
+          <t>Exam40</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -7118,9 +7118,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M64" s="27" t="inlineStr">
+        <is>
+          <t>Exam56</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7128,14 +7128,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O64" s="3" t="inlineStr">
-        <is>
-          <t>Exam66</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P64" s="66" t="inlineStr">
+        <is>
+          <t>Exam70</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -7148,9 +7148,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S64" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -7160,14 +7160,14 @@
           <t>Rose Harris</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C65" s="20" t="inlineStr">
-        <is>
-          <t>Exam6</t>
+      <c r="B65" s="56" t="inlineStr">
+        <is>
+          <t>Exam2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -7205,9 +7205,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="K65" s="14" t="inlineStr">
+        <is>
+          <t>Exam43</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -7220,9 +7220,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N65" s="41" t="inlineStr">
+        <is>
+          <t>Exam57</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -7230,9 +7230,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P65" s="28" t="inlineStr">
+        <is>
+          <t>Exam67</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -7245,7 +7245,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S65" s="10" t="inlineStr">
+      <c r="S65" s="5" t="inlineStr">
         <is>
           <t>Exam72</t>
         </is>
@@ -7287,14 +7287,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I66" s="1" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="H66" s="4" t="inlineStr">
+        <is>
+          <t>Exam34</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -7302,9 +7302,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K66" s="13" t="inlineStr">
-        <is>
-          <t>Exam43</t>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -7342,9 +7342,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S66" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -7389,9 +7389,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I67" s="1" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7409,9 +7409,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="M67" s="62" t="inlineStr">
+        <is>
+          <t>Exam55</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -7461,9 +7461,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D68" s="52" t="inlineStr">
+        <is>
+          <t>Exam13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7481,9 +7481,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H68" s="4" t="inlineStr">
+        <is>
+          <t>Exam34</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -7496,9 +7496,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K68" s="75" t="inlineStr">
-        <is>
-          <t>Exam46</t>
+      <c r="K68" s="19" t="inlineStr">
+        <is>
+          <t>Exam47</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -7521,9 +7521,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="P68" s="66" t="inlineStr">
+        <is>
+          <t>Exam70</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -7536,9 +7536,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S68" s="10" t="inlineStr">
-        <is>
-          <t>Exam72</t>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7568,9 +7568,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F69" s="29" t="inlineStr">
-        <is>
-          <t>Exam25</t>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -7593,9 +7593,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K69" s="56" t="inlineStr">
-        <is>
-          <t>Exam49</t>
+      <c r="K69" s="71" t="inlineStr">
+        <is>
+          <t>Exam46</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -7618,9 +7618,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P69" s="69" t="inlineStr">
-        <is>
-          <t>Exam68</t>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -7633,9 +7633,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S69" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -7655,9 +7655,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D70" s="68" t="inlineStr">
+        <is>
+          <t>Exam12</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -7675,9 +7675,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H70" s="54" t="inlineStr">
+        <is>
+          <t>Exam32</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -7715,9 +7715,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P70" s="48" t="inlineStr">
-        <is>
-          <t>Exam67</t>
+      <c r="P70" s="69" t="inlineStr">
+        <is>
+          <t>Exam68</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -7730,9 +7730,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S70" s="6" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7782,14 +7782,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J71" s="36" t="inlineStr">
-        <is>
-          <t>Exam40</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K71" s="72" t="inlineStr">
+        <is>
+          <t>Exam44</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -7827,9 +7827,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S71" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -7849,14 +7849,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D72" s="57" t="inlineStr">
-        <is>
-          <t>Exam12</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E72" s="73" t="inlineStr">
+        <is>
+          <t>Exam20</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7874,9 +7874,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I72" s="16" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7899,9 +7899,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N72" s="66" t="inlineStr">
-        <is>
-          <t>Exam57</t>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -7924,9 +7924,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S72" s="10" t="inlineStr">
+        <is>
+          <t>Exam74</t>
         </is>
       </c>
     </row>
@@ -7936,9 +7936,9 @@
           <t>Walter Gray</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B73" s="74" t="inlineStr">
+        <is>
+          <t>Exam1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7971,9 +7971,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="I73" s="16" t="inlineStr">
+        <is>
+          <t>Exam35</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -8001,7 +8001,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O73" s="52" t="inlineStr">
+      <c r="O73" s="8" t="inlineStr">
         <is>
           <t>Exam65</t>
         </is>
@@ -8048,9 +8048,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E74" s="7" t="inlineStr">
-        <is>
-          <t>Exam17</t>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8098,14 +8098,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P74" s="5" t="inlineStr">
-        <is>
-          <t>Exam70</t>
+      <c r="O74" s="61" t="inlineStr">
+        <is>
+          <t>Exam64</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -8118,9 +8118,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S74" s="6" t="inlineStr">
-        <is>
-          <t>Exam74</t>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8130,9 +8130,9 @@
           <t>Winifred Richardson</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B75" s="36" t="inlineStr">
+        <is>
+          <t>Exam3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8140,9 +8140,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D75" s="75" t="inlineStr">
+        <is>
+          <t>Exam11</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -8155,9 +8155,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G75" s="68" t="inlineStr">
-        <is>
-          <t>Exam26</t>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8165,9 +8165,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I75" s="1" t="inlineStr">
-        <is>
-          <t>Exam35</t>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -8195,14 +8195,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P75" s="67" t="inlineStr">
-        <is>
-          <t>Exam69</t>
+      <c r="O75" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -8215,9 +8215,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="S75" s="5" t="inlineStr">
+        <is>
+          <t>Exam72</t>
         </is>
       </c>
     </row>
@@ -8227,9 +8227,9 @@
           <t>Zachary Brooks</t>
         </is>
       </c>
-      <c r="B76" s="31" t="inlineStr">
-        <is>
-          <t>Exam3</t>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8252,19 +8252,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G76" s="43" t="inlineStr">
-        <is>
-          <t>Exam28</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" s="65" t="inlineStr">
-        <is>
-          <t>Exam39</t>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" s="59" t="inlineStr">
+        <is>
+          <t>Exam31</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -8272,9 +8272,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K76" s="32" t="inlineStr">
-        <is>
-          <t>Exam47</t>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -8292,9 +8292,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="O76" s="21" t="inlineStr">
+        <is>
+          <t>Exam66</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
